--- a/Resources/User Stories.xlsx
+++ b/Resources/User Stories.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandylillis/Documents/_Sky GIT Files/Group Projects/FriendsLends/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/FriendsLendsRepo/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1240" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="5880" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>So that</t>
   </si>
@@ -221,6 +221,93 @@
       </rPr>
       <t>]</t>
     </r>
+  </si>
+  <si>
+    <t>I want to be able to see all itmes that are available</t>
+  </si>
+  <si>
+    <t>I want to check the availability of a particular item</t>
+  </si>
+  <si>
+    <t>SELECT Headline FROM items WHERE Borrower IS NULL;</t>
+  </si>
+  <si>
+    <t>I want to see who currently holds an item</t>
+  </si>
+  <si>
+    <t>SELECT Borrower FROM Items WHERE Borrower IS NOT NULL;</t>
+  </si>
+  <si>
+    <t>SELECT Borrower FROM Items WHERE Headline - 'particular_item';</t>
+  </si>
+  <si>
+    <t>I want to be able to see all items which are on loan</t>
+  </si>
+  <si>
+    <t>SELECT Headline FROM items WHERE Borrower IS NOT NULL</t>
+  </si>
+  <si>
+    <t>I want to be able to see the number of items available for loan</t>
+  </si>
+  <si>
+    <t>SELECT COUNT (*) FROM items WHERE Borrower IS NULL;</t>
+  </si>
+  <si>
+    <t>I want to be able to see the number of items currently on loan</t>
+  </si>
+  <si>
+    <t>SELECT COUNT (*) FROM items WHERE Borrower IS NOT NULL;</t>
+  </si>
+  <si>
+    <t>I want to be able to see the number of items available for loan per category</t>
+  </si>
+  <si>
+    <t>SELECT Category,
+COUNT(*) FROM items
+GROUP BY Category;</t>
+  </si>
+  <si>
+    <t>I want to be able to search for specific items.</t>
+  </si>
+  <si>
+    <t>Not sure if this is right for selecting a specific item, slide 466</t>
+  </si>
+  <si>
+    <t>select item name
+from items
+where item name IN ('watering can')</t>
+  </si>
+  <si>
+    <t>I want to be able to see a list of all items.</t>
+  </si>
+  <si>
+    <t>select item name
+from items
+order by item name ASC</t>
+  </si>
+  <si>
+    <t>Should give a list of all items from the table items in alphabetical order. Slide 462. Again assuming theres a column called item name, I need to download a copy of the DB and look at it.</t>
+  </si>
+  <si>
+    <t>select item name
+from items
+where category = 'outdoors'</t>
+  </si>
+  <si>
+    <t>This is assuming that in our items table the column for item names is called item name and we have a category called outdoors, this should display the names of all items in the outdoors category, i hope! was looking on page 469 of the slides for this one.</t>
+  </si>
+  <si>
+    <t>I want to:
+I want to be able to search for specific items</t>
+  </si>
+  <si>
+    <t>We can INSERT New users that is new borrowers to our database, maybe
+2 more names.
+We can Update items that have been returned back from borrowers into
+the table.
+We can delete private address if we put in two genius address eg my add
+is: 17 Parkside Drive , Seacroft Leeds, LS14 6FP.
+Select * from TABLE all lenders names and address.</t>
   </si>
 </sst>
 </file>
@@ -397,7 +484,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -438,6 +525,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -445,43 +535,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -637,6 +690,43 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
@@ -648,14 +738,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="7">
-  <autoFilter ref="A1:E15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E26" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:E26"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="AccessLevel" dataDxfId="6"/>
-    <tableColumn id="2" name="I  want to be able to" dataDxfId="5"/>
-    <tableColumn id="3" name="So that" dataDxfId="4"/>
-    <tableColumn id="4" name="Statement" dataDxfId="3"/>
-    <tableColumn id="5" name="Comments" dataDxfId="2"/>
+    <tableColumn id="1" name="AccessLevel" dataDxfId="4"/>
+    <tableColumn id="2" name="I  want to be able to" dataDxfId="3"/>
+    <tableColumn id="3" name="So that" dataDxfId="2"/>
+    <tableColumn id="4" name="Statement" dataDxfId="1"/>
+    <tableColumn id="5" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -926,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1162,25 +1252,158 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">

--- a/Resources/User Stories.xlsx
+++ b/Resources/User Stories.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="5880" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26440" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stored Procedures" sheetId="1" r:id="rId1"/>
+    <sheet name="Form Submissions" sheetId="3" r:id="rId2"/>
+    <sheet name="Functionality" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t>So that</t>
   </si>
@@ -166,15 +168,6 @@
   </si>
   <si>
     <t>Admin will have access all areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Form submission? </t>
-  </si>
-  <si>
-    <t>Form Submission? Should invites require approval from all members?</t>
-  </si>
-  <si>
-    <t>Form submission?</t>
   </si>
   <si>
     <r>
@@ -223,9 +216,6 @@
     </r>
   </si>
   <si>
-    <t>I want to be able to see all itmes that are available</t>
-  </si>
-  <si>
     <t>I want to check the availability of a particular item</t>
   </si>
   <si>
@@ -257,14 +247,6 @@
   </si>
   <si>
     <t>SELECT COUNT (*) FROM items WHERE Borrower IS NOT NULL;</t>
-  </si>
-  <si>
-    <t>I want to be able to see the number of items available for loan per category</t>
-  </si>
-  <si>
-    <t>SELECT Category,
-COUNT(*) FROM items
-GROUP BY Category;</t>
   </si>
   <si>
     <t>I want to be able to search for specific items.</t>
@@ -301,20 +283,144 @@
 I want to be able to search for specific items</t>
   </si>
   <si>
-    <t>We can INSERT New users that is new borrowers to our database, maybe
-2 more names.
-We can Update items that have been returned back from borrowers into
-the table.
-We can delete private address if we put in two genius address eg my add
-is: 17 Parkside Drive , Seacroft Leeds, LS14 6FP.
-Select * from TABLE all lenders names and address.</t>
+    <t>DELIMITER $$
+CREATE PROCEDURE CatBreakdown()
+BEGIN
+SELECT
+Category,
+COUNT(*)
+FROM
+items
+WHERE active_status = 'active'
+GROUP BY Category;
+END$$
+DELIMITER ;</t>
+  </si>
+  <si>
+    <t>I want to be able to filter on Category</t>
+  </si>
+  <si>
+    <t>DELIMITER $$
+CREATE PROCEDURE HobbiesFilter()
+BEGIN
+SELECT
+*
+FROM
+Items
+WHERE Category = 'Hobbies'
+GROUP BY Headline ASC;
+END$$
+DELIMITER ;</t>
+  </si>
+  <si>
+    <t>This one filters on the Hobbies category</t>
+  </si>
+  <si>
+    <t>This one filters on whatever category is passed as a parameter to the procedure</t>
+  </si>
+  <si>
+    <t>DELIMITER $$
+CREATE PROCEDURE CatFilter(
+    IN catchoice VARCHAR(100)
+)
+BEGIN
+    SELECT * 
+    FROM Items
+    WHERE Category = catchoice
+    GROUP BY Headline ASC;
+END $$
+DELIMITER ;</t>
+  </si>
+  <si>
+    <t>I want to be able to see the number of active items per category</t>
+  </si>
+  <si>
+    <t>I want to be able to see the number of items currently available for loan per category</t>
+  </si>
+  <si>
+    <t>DELIMITER $$
+CREATE PROCEDURE ItemAvailability(
+    OUT TotalActiveItems INT,
+    OUT TotalInactiveItems INT,
+    OUT OutOnLoan INT,
+    OUT NotOnLoan INT)
+BEGIN
+        -- Total Active Items
+        SELECT
+            count(*) INTO TotalActiveItems
+        FROM
+            Items
+        WHERE
+            active_status = 'active';
+        -- Total Inactive Items
+        SELECT
+            count(*) INTO TotalInactiveItems
+        FROM
+            Items
+        WHERE
+            active_status = 'inactive';
+        -- Out On Loan
+        SELECT
+            count(*) INTO OutOnLoan
+        FROM
+            Items
+        WHERE
+            Borrower IS NOT NULL;
+        -- Not On Loan
+        SELECT
+            count(*) INTO NotOnLoan
+        FROM
+            Items
+        WHERE
+            active_status = 'active'
+                AND Borrower IS NULL;
+ END$$
+DELIMITER ;</t>
+  </si>
+  <si>
+    <t>Should invites require approval from all members</t>
+  </si>
+  <si>
+    <t>I want to be able to see all items that are available</t>
+  </si>
+  <si>
+    <t>SELECT Category,
+COUNT(*) FROM items
+WHERE active_status = 'active'
+GROUP BY Category;</t>
+  </si>
+  <si>
+    <t>Stored Procedure Code</t>
+  </si>
+  <si>
+    <t>DELIMITER $$
+CREATE PROCEDURE ItemSearch(
+    IN finditem CHAR(40)
+)
+BEGIN
+    SELECT * 
+    FROM Items
+    WHERE Headline LIKE CONCAT('%',finditem,'%')
+    OR Description LIKE CONCAT('%',finditem,'%')
+    GROUP BY Headline ASC;
+END $$
+DELIMITER ;</t>
+  </si>
+  <si>
+    <t>Searches Headline and Description fields in the Items table for whatever input parameter you provide</t>
+  </si>
+  <si>
+    <t>Check with Martina re multiple optional input parameters</t>
+  </si>
+  <si>
+    <t>I want to see the overall number of items currently active / inactive / on loan / available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,8 +465,30 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +501,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -401,7 +541,20 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -416,40 +569,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -457,9 +579,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -469,265 +589,94 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF172B4D"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF172B4D"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -735,20 +684,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E26" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:E26"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="AccessLevel" dataDxfId="4"/>
-    <tableColumn id="2" name="I  want to be able to" dataDxfId="3"/>
-    <tableColumn id="3" name="So that" dataDxfId="2"/>
-    <tableColumn id="4" name="Statement" dataDxfId="1"/>
-    <tableColumn id="5" name="Comments" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1014,408 +949,553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="31" style="9" customWidth="1"/>
-    <col min="3" max="3" width="39.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="81" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="13.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="81" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81" style="3" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="2" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="E2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D3" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="409" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="D4" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="160" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="13"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/User Stories.xlsx
+++ b/Resources/User Stories.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26440" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Stored Procedures" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>So that</t>
   </si>
@@ -255,25 +255,10 @@
     <t>Not sure if this is right for selecting a specific item, slide 466</t>
   </si>
   <si>
-    <t>select item name
-from items
-where item name IN ('watering can')</t>
-  </si>
-  <si>
     <t>I want to be able to see a list of all items.</t>
   </si>
   <si>
-    <t>select item name
-from items
-order by item name ASC</t>
-  </si>
-  <si>
     <t>Should give a list of all items from the table items in alphabetical order. Slide 462. Again assuming theres a column called item name, I need to download a copy of the DB and look at it.</t>
-  </si>
-  <si>
-    <t>select item name
-from items
-where category = 'outdoors'</t>
   </si>
   <si>
     <t>This is assuming that in our items table the column for item names is called item name and we have a category called outdoors, this should display the names of all items in the outdoors category, i hope! was looking on page 469 of the slides for this one.</t>
@@ -414,6 +399,30 @@
   </si>
   <si>
     <t>I want to see the overall number of items currently active / inactive / on loan / available</t>
+  </si>
+  <si>
+    <t>DELIMITER $$
+CREATE PROCEDURE OnLoan()
+BEGIN
+SELECT Headline, Borrower FROM items
+WHERE Borrower IS NOT NULL;
+END$$
+DELIMITER ;</t>
+  </si>
+  <si>
+    <t>select Headline
+from items
+where item name IN ('watering can')</t>
+  </si>
+  <si>
+    <t>select Headline
+from items
+order by item name ASC</t>
+  </si>
+  <si>
+    <t>select Headline
+from items
+where category = 'outdoors'</t>
   </si>
 </sst>
 </file>
@@ -620,53 +629,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -952,8 +961,8 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="D6:E6"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -967,28 +976,28 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="E1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="192" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -997,18 +1006,18 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>74</v>
+      <c r="E2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1017,14 +1026,14 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1033,14 +1042,14 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1049,14 +1058,14 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1065,221 +1074,223 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="D13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="11" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="176" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>63</v>
+      <c r="F17" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="176" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>64</v>
+      <c r="D18" s="16"/>
+      <c r="E18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="11" t="s">
-        <v>75</v>
+      <c r="A19" s="17"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="192" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="11"/>
+      <c r="E20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="409" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
@@ -1318,22 +1329,22 @@
     <col min="4" max="4" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1342,10 +1353,10 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1354,12 +1365,12 @@
       <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="D3" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1368,7 +1379,7 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1382,7 +1393,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1394,38 +1405,38 @@
     <col min="5" max="5" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1434,13 +1445,13 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1449,13 +1460,13 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1464,11 +1475,11 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1477,11 +1488,11 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1490,8 +1501,8 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Resources/User Stories.xlsx
+++ b/Resources/User Stories.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/FriendsLendsRepo/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DBproject\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704AD5E7-1632-4815-91DD-3AAA579AFF66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stored Procedures" sheetId="1" r:id="rId1"/>
@@ -412,23 +413,23 @@
   <si>
     <t>select Headline
 from items
-where item name IN ('watering can')</t>
+where category = 'outdoors'</t>
   </si>
   <si>
     <t>select Headline
 from items
-order by item name ASC</t>
+where Headline IN ('watering can')</t>
   </si>
   <si>
     <t>select Headline
 from items
-where category = 'outdoors'</t>
+order by Headline ASC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -690,6 +691,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -957,26 +961,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="31" style="3" customWidth="1"/>
     <col min="3" max="3" width="39.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="81" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81" style="3" customWidth="1"/>
-    <col min="6" max="6" width="51.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="51.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1032,7 +1036,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1048,7 +1052,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1064,7 +1068,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1082,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1096,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1110,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1124,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1140,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -1150,7 +1154,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1168,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1178,7 +1182,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -1187,14 +1191,14 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -1203,14 +1207,14 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>9</v>
       </c>
@@ -1219,14 +1223,14 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>9</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1254,7 +1258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -1264,7 +1268,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1282,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" ht="409" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
@@ -1292,13 +1296,13 @@
       </c>
       <c r="F21" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
     </row>
   </sheetData>
@@ -1314,22 +1318,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -1355,7 +1359,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1389,23 +1393,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1422,7 +1426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -1435,7 +1439,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1478,7 +1482,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1491,7 +1495,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
